--- a/project_1/3. 요구사항 명세서, 분석서/요구사항 명세서_DLT_v0.1.xlsx
+++ b/project_1/3. 요구사항 명세서, 분석서/요구사항 명세서_DLT_v0.1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t>RQ-ID-001-01</t>
   </si>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>웹 페이지 왼쪽 상단에 클릭 시, 첫 화면으로 이동할 수 있는 로고 이미지를 삽입</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>자동으로 움직이는(캐러셀) 이미지를 상단부분에 설정, 수동으로 이미지를 조정할 수 있는 버튼을 양옆에 삽입</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -91,10 +87,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>각 질병들의 정보를 설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>그래프 부분</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -139,22 +131,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>첫 번째 지역 조건 설정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>두 번째지역 조건 설정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 원하는 첫 번째 지역의 예측 기대수명 데이터를 셀렉트 박스를 이용하여 선택할 수 있도록 하고 그에 맞는 데이터를 그래프에서 제공</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 원하는 두 번째지역의 예측 기대수명 데이터를 셀렉트 박스를 이용하여 선택할 수 있도록 하고 그에 맞는 데이터를 그래프에서 제공</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>시작 연도 조건 설정</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -207,10 +183,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>RQ-ID-001-04</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>카카오맵을 이용하여 확인하고 싶은 지역을 클릭할 수 있도록 설정(클릭 시 해당하는 지역의 질병 차트가 생기도록 설정)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -235,10 +207,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>지역별 통계(지역별 4대 질병 데이터 확인), 기대수명 예측(지역별 기대수명을 예측한 데이터 확인), 정책(각 지역별 정책들을 확인), 당신의 만족도는?(만족도 조사 서비스) , 커뮤니티(사용자들끼리의 정보와 지식을 공유하는 기능), 로그인(로그인/회원가입 홈페이지로 이동), 상단에 고정</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>RQ-ID-100-01</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -282,15 +250,6 @@
   </si>
   <si>
     <t>RQ-ID-200-02</t>
-  </si>
-  <si>
-    <t>RQ-ID-200-03</t>
-  </si>
-  <si>
-    <t>RQ-ID-200-04</t>
-  </si>
-  <si>
-    <t>RQ-ID-200-05</t>
   </si>
   <si>
     <t>캐러샐 내부에 버튼을 추가하여 캐러셀 이미지에 맞는 서비스로 이동할 수 있는 버튼 삽입</t>
@@ -310,7 +269,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
@@ -328,8 +287,56 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">생활환경에 따른 노인 건강 분석 및 정책 제공 서비스 </t>
+      <t>생활환경에 따른 노인 기대 수명 및 삶의 만족도 분석 서비스</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 통계(지역별 4대 질병 데이터 확인), 기대수명 예측(지역별 기대수명을 예측 데이터 확인), 정책(각 지역별 정책을 확인), 당신의 만족도는?(만족도 조사 서비스) , 커뮤니티(사용자들끼리의 정보와 지식을 공유하는 기능), 로그인(로그인/회원가입 홈페이지로 이동), 상단에 고정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 페이지 왼쪽 상단에 클릭 시, 메인 화면으로 이동할 수 있는 로고 이미지를 삽입</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-001-05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-001-04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸통 부분</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸통 하단 부분에 지역별 통계, 기대 수명 예측, 정책 정보 서비스에 해당하는 이미지와 바로 이동할 수 있는 버튼 삽입</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 질병들의 상세한 정보를 설명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 조건 설정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-ID-200-04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 원하는 지역의 예측 기대수명 데이터를 셀렉트 박스를 이용하여 선택할 수 있도록 하고 그에 맞는 데이터를 그래프에서 제공</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -365,14 +372,14 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
@@ -431,14 +438,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,10 +483,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -898,7 +902,7 @@
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -910,19 +914,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>7</v>
@@ -933,7 +937,7 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -942,12 +946,12 @@
         <v>5</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
@@ -956,7 +960,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -970,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -984,12 +988,12 @@
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>3</v>
@@ -998,253 +1002,253 @@
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
+        <v>68</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>55</v>
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>24</v>
+        <v>47</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
